--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_94.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0826923076923077</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'D:7/C']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'B:7']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(245.26, 253.0)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(155.208548, 161.535985)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:46.880000', '0:00:58.120000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:03.640000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07045454545454546</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
-        </is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07061307475758523</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(84.323, 87.713)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.3, 10.3)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:44.740000', '0:00:47.140000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:20.080000', '0:00:22.560000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C/5', 'D/3', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(33.466326, 38.923015)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(18.675377, 23.261318)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.08, 19.06)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(20.2, 22.82)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.114353782013103</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564), (20.045192, 25.141972)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94), (45.76, 53.56)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:34.650000', '0:00:38.790000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:17.360000', '0:00:20.120000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D9" t="inlineStr">
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[(0.24, 9.28)]</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1475128644939966</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(28.19, 44.26)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(26.6, 37.55)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(243.44, 246.98)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.08, 19.06)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'Eb'], ['Eb', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb:min', 'Ab:min', 'Gb'], ['Gb', 'Bb:7', 'Eb:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(29.608, 36.624), (34.298, 41.282)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.412721, 6.310589), (7.459977, 12.045918)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.0, 10.234761)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(52.711123, 59.224321)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34), (9.24, 16.26)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.540000', '0:00:15.420000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'A/b7']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.076327, 18.058549)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.998185, 47.539229)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2073732718894009</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(57.401473, 66.677845)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.850181, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(60.76, 64.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.17907, 21.844739)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
